--- a/Report/Resources/Analysis of Staff.xlsx
+++ b/Report/Resources/Analysis of Staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93bdcf1d317cb3a6/UON/EBUS3030/EBUS3030/Report/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98B50B5-4EA0-4355-A009-812ADA6E48E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B98B50B5-4EA0-4355-A009-812ADA6E48E7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{03C845F4-1144-4F1E-A17D-7C4C34C505FD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{9FCD2417-7379-4C1C-ACA1-0C8FB7FD0087}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,8 +992,8 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="0"/>
-        <color theme="7"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1004,8 +1004,8 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="0"/>
-        <color theme="7"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1016,8 +1016,8 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="0"/>
-        <color theme="7"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1028,8 +1028,8 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="0"/>
-        <color theme="7"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1040,8 +1040,8 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="0"/>
-        <color theme="7"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -1052,8 +1052,8 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color theme="0"/>
-        <color theme="7"/>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
+        <color theme="9"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
